--- a/DS/Yash_Rankings.xlsx
+++ b/DS/Yash_Rankings.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yash/Desktop/2021 Fantasy/FantasyFootball_2021/DS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3662AF28-B80E-2F4F-BF75-651539A26404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{96E435A3-965D-AB4B-A05D-8FC97F391442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
   <sheets>
-    <sheet name="half_ppr" sheetId="1" r:id="rId1"/>
+    <sheet name=".5 PPR" sheetId="1" r:id="rId1"/>
+    <sheet name="Full" sheetId="2" r:id="rId2"/>
+    <sheet name="Standard" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -2352,7 +2354,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -10259,4 +10263,32 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>